--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-665484.9154569521</v>
+        <v>-668271.7286894282</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10878845.68245892</v>
+        <v>10878845.68245893</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>357.6982945846998</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.04045807104877</v>
       </c>
       <c r="H2" t="n">
-        <v>288.3551403338581</v>
+        <v>316.3062327590185</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>7.761206811564819</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>36.43809979206929</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>100.5452752761224</v>
       </c>
       <c r="I3" t="n">
-        <v>47.72187066297906</v>
+        <v>47.72187066297894</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>25.00523115398066</v>
+        <v>25.00523115398045</v>
       </c>
       <c r="S3" t="n">
         <v>149.2000350696943</v>
       </c>
       <c r="T3" t="n">
-        <v>195.285861630978</v>
+        <v>195.2858616309779</v>
       </c>
       <c r="U3" t="n">
         <v>225.86174877743</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>124.933252390241</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>21.61418626226434</v>
+        <v>21.61418626226414</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,28 +859,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1.187999482508573</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>131.6651620337331</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>131.3281743252055</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.6097083544006</v>
       </c>
       <c r="U4" t="n">
         <v>286.2636776832073</v>
       </c>
       <c r="V4" t="n">
-        <v>17.75905416813469</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>264.8101302713642</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>191.3408351155925</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,10 +911,10 @@
         <v>413.0404580710488</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>316.3062327590185</v>
       </c>
       <c r="I5" t="n">
-        <v>123.2593613022698</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>7.761206811565245</v>
+        <v>7.761206811564819</v>
       </c>
       <c r="S5" t="n">
-        <v>157.4683767541293</v>
+        <v>157.4683767541292</v>
       </c>
       <c r="T5" t="n">
         <v>213.1927212976437</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>281.4885841085972</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>100.5452752761224</v>
       </c>
       <c r="I6" t="n">
-        <v>47.72187066297906</v>
+        <v>47.72187066297894</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>25.00523115398066</v>
+        <v>25.00523115398045</v>
       </c>
       <c r="S6" t="n">
         <v>149.2000350696943</v>
       </c>
       <c r="T6" t="n">
-        <v>195.285861630978</v>
+        <v>195.2858616309779</v>
       </c>
       <c r="U6" t="n">
         <v>225.86174877743</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>51.25082028887611</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.187999482508815</v>
+        <v>1.187999482508573</v>
       </c>
       <c r="R7" t="n">
-        <v>131.6651620337332</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>206.3317384228664</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2636776832073</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>221.3375645332473</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>213.6217544115669</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>412.9169039459368</v>
@@ -1151,7 +1151,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>16.32276755353855</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>6.980384243200342</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>110.2041788049718</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>14.90335196317939</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,13 +1585,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>5.94317878650329</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890381</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892427763</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892427807</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016488</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,13 +2293,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>141.3831318263024</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,13 +2479,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>105.9893107373045</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>12.74007641194029</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3086,7 +3086,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3670,7 +3670,7 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
         <v>141.2394908002292</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1140.919844508493</v>
+        <v>1859.879170499289</v>
       </c>
       <c r="C2" t="n">
-        <v>1140.919844508493</v>
+        <v>1490.916653558877</v>
       </c>
       <c r="D2" t="n">
-        <v>1140.919844508493</v>
+        <v>1132.650954952127</v>
       </c>
       <c r="E2" t="n">
-        <v>755.1315919102485</v>
+        <v>746.8627023538825</v>
       </c>
       <c r="F2" t="n">
-        <v>344.145687120641</v>
+        <v>385.5512936824685</v>
       </c>
       <c r="G2" t="n">
-        <v>344.145687120641</v>
+        <v>372.3791138127223</v>
       </c>
       <c r="H2" t="n">
-        <v>52.87786860159241</v>
+        <v>52.8778686015924</v>
       </c>
       <c r="I2" t="n">
-        <v>52.87786860159241</v>
+        <v>52.8778686015924</v>
       </c>
       <c r="J2" t="n">
-        <v>63.73048168801526</v>
+        <v>231.1361307083688</v>
       </c>
       <c r="K2" t="n">
-        <v>253.1894179546077</v>
+        <v>619.0438611666245</v>
       </c>
       <c r="L2" t="n">
-        <v>786.6998862781846</v>
+        <v>1152.554329490202</v>
       </c>
       <c r="M2" t="n">
-        <v>1396.939624223139</v>
+        <v>1317.775669277253</v>
       </c>
       <c r="N2" t="n">
-        <v>2002.421681568233</v>
+        <v>1490.284271454484</v>
       </c>
       <c r="O2" t="n">
-        <v>2528.973581038824</v>
+        <v>2016.836170925077</v>
       </c>
       <c r="P2" t="n">
-        <v>2622.11834103093</v>
+        <v>2428.561652006951</v>
       </c>
       <c r="Q2" t="n">
         <v>2643.89343007962</v>
       </c>
       <c r="R2" t="n">
-        <v>2643.89343007962</v>
+        <v>2636.053827239656</v>
       </c>
       <c r="S2" t="n">
-        <v>2643.89343007962</v>
+        <v>2636.053827239656</v>
       </c>
       <c r="T2" t="n">
-        <v>2643.89343007962</v>
+        <v>2636.053827239656</v>
       </c>
       <c r="U2" t="n">
-        <v>2643.89343007962</v>
+        <v>2636.053827239656</v>
       </c>
       <c r="V2" t="n">
-        <v>2643.89343007962</v>
+        <v>2636.053827239656</v>
       </c>
       <c r="W2" t="n">
-        <v>2291.124774809506</v>
+        <v>2283.285171969541</v>
       </c>
       <c r="X2" t="n">
-        <v>1917.659016548426</v>
+        <v>2246.479010563411</v>
       </c>
       <c r="Y2" t="n">
-        <v>1527.519684572615</v>
+        <v>2246.479010563411</v>
       </c>
     </row>
     <row r="3">
@@ -4398,34 +4398,34 @@
         <v>340.1508351555635</v>
       </c>
       <c r="G3" t="n">
-        <v>202.6426624794729</v>
+        <v>202.6426624794726</v>
       </c>
       <c r="H3" t="n">
-        <v>101.0817783621773</v>
+        <v>101.0817783621772</v>
       </c>
       <c r="I3" t="n">
-        <v>52.87786860159241</v>
+        <v>52.8778686015924</v>
       </c>
       <c r="J3" t="n">
-        <v>52.87786860159241</v>
+        <v>52.8778686015924</v>
       </c>
       <c r="K3" t="n">
-        <v>180.4495909947078</v>
+        <v>371.7381448755746</v>
       </c>
       <c r="L3" t="n">
-        <v>670.6009785340301</v>
+        <v>861.8895324148976</v>
       </c>
       <c r="M3" t="n">
-        <v>1294.563750485348</v>
+        <v>1485.852304366217</v>
       </c>
       <c r="N3" t="n">
-        <v>1476.199023138383</v>
+        <v>1791.477164091918</v>
       </c>
       <c r="O3" t="n">
-        <v>2010.063713170336</v>
+        <v>2325.341854123872</v>
       </c>
       <c r="P3" t="n">
-        <v>2421.534125586047</v>
+        <v>2421.534125586046</v>
       </c>
       <c r="Q3" t="n">
         <v>2643.89343007962</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1841.325230572809</v>
+        <v>221.6003274755271</v>
       </c>
       <c r="C4" t="n">
-        <v>1841.325230572809</v>
+        <v>221.6003274755271</v>
       </c>
       <c r="D4" t="n">
-        <v>1841.325230572809</v>
+        <v>221.6003274755271</v>
       </c>
       <c r="E4" t="n">
-        <v>1841.325230572809</v>
+        <v>221.6003274755271</v>
       </c>
       <c r="F4" t="n">
-        <v>1841.325230572809</v>
+        <v>74.71037997761678</v>
       </c>
       <c r="G4" t="n">
-        <v>1841.325230572809</v>
+        <v>74.71037997761678</v>
       </c>
       <c r="H4" t="n">
-        <v>1841.325230572809</v>
+        <v>74.71037997761678</v>
       </c>
       <c r="I4" t="n">
-        <v>1715.130026138222</v>
+        <v>74.71037997761678</v>
       </c>
       <c r="J4" t="n">
-        <v>1693.297514762198</v>
+        <v>52.8778686015924</v>
       </c>
       <c r="K4" t="n">
-        <v>1787.970791307672</v>
+        <v>147.5511451470671</v>
       </c>
       <c r="L4" t="n">
-        <v>1964.646425020547</v>
+        <v>324.2267788599426</v>
       </c>
       <c r="M4" t="n">
-        <v>2161.315232113534</v>
+        <v>520.8955859529301</v>
       </c>
       <c r="N4" t="n">
-        <v>2358.742310972101</v>
+        <v>718.3226648114972</v>
       </c>
       <c r="O4" t="n">
-        <v>2525.081877282179</v>
+        <v>884.6622311215749</v>
       </c>
       <c r="P4" t="n">
-        <v>2643.89343007962</v>
+        <v>1003.473783919017</v>
       </c>
       <c r="Q4" t="n">
-        <v>2643.89343007962</v>
+        <v>1002.273784441736</v>
       </c>
       <c r="R4" t="n">
-        <v>2643.89343007962</v>
+        <v>869.2786712763487</v>
       </c>
       <c r="S4" t="n">
-        <v>2643.89343007962</v>
+        <v>736.6239497357371</v>
       </c>
       <c r="T4" t="n">
-        <v>2643.89343007962</v>
+        <v>510.7555574585648</v>
       </c>
       <c r="U4" t="n">
-        <v>2354.738200096583</v>
+        <v>221.6003274755271</v>
       </c>
       <c r="V4" t="n">
-        <v>2336.799761542911</v>
+        <v>221.6003274755271</v>
       </c>
       <c r="W4" t="n">
-        <v>2069.314781470826</v>
+        <v>221.6003274755271</v>
       </c>
       <c r="X4" t="n">
-        <v>1841.325230572809</v>
+        <v>221.6003274755271</v>
       </c>
       <c r="Y4" t="n">
-        <v>1841.325230572809</v>
+        <v>221.6003274755271</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4541,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1363.846461263929</v>
+        <v>1200.57760251248</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.846461263929</v>
+        <v>1200.57760251248</v>
       </c>
       <c r="D5" t="n">
-        <v>1005.580762657178</v>
+        <v>1200.57760251248</v>
       </c>
       <c r="E5" t="n">
-        <v>1005.580762657178</v>
+        <v>1200.57760251248</v>
       </c>
       <c r="F5" t="n">
-        <v>594.5948578675708</v>
+        <v>789.5916977228726</v>
       </c>
       <c r="G5" t="n">
-        <v>177.3822739574205</v>
+        <v>372.3791138127223</v>
       </c>
       <c r="H5" t="n">
-        <v>177.3822739574205</v>
+        <v>52.8778686015924</v>
       </c>
       <c r="I5" t="n">
-        <v>52.87786860159241</v>
+        <v>52.8778686015924</v>
       </c>
       <c r="J5" t="n">
-        <v>63.73048168801526</v>
+        <v>63.73048168801579</v>
       </c>
       <c r="K5" t="n">
-        <v>253.1894179546077</v>
+        <v>451.6382121462715</v>
       </c>
       <c r="L5" t="n">
-        <v>786.6998862781846</v>
+        <v>985.1486804698493</v>
       </c>
       <c r="M5" t="n">
-        <v>1396.939624223139</v>
+        <v>1150.3700202569</v>
       </c>
       <c r="N5" t="n">
-        <v>2002.421681568233</v>
+        <v>1755.852077601996</v>
       </c>
       <c r="O5" t="n">
-        <v>2528.973581038824</v>
+        <v>2282.403977072588</v>
       </c>
       <c r="P5" t="n">
-        <v>2622.11834103093</v>
+        <v>2622.118341030928</v>
       </c>
       <c r="Q5" t="n">
         <v>2643.89343007962</v>
@@ -4592,25 +4592,25 @@
         <v>2636.053827239656</v>
       </c>
       <c r="S5" t="n">
-        <v>2476.994860821343</v>
+        <v>2476.994860821344</v>
       </c>
       <c r="T5" t="n">
-        <v>2261.64867769241</v>
+        <v>2261.648677692411</v>
       </c>
       <c r="U5" t="n">
-        <v>2261.64867769241</v>
+        <v>2261.648677692411</v>
       </c>
       <c r="V5" t="n">
-        <v>1930.58579034884</v>
+        <v>2261.648677692411</v>
       </c>
       <c r="W5" t="n">
-        <v>1930.58579034884</v>
+        <v>1977.316774552414</v>
       </c>
       <c r="X5" t="n">
-        <v>1557.12003208776</v>
+        <v>1977.316774552414</v>
       </c>
       <c r="Y5" t="n">
-        <v>1557.12003208776</v>
+        <v>1587.177442576602</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>969.3102870765125</v>
+        <v>969.3102870765119</v>
       </c>
       <c r="C6" t="n">
-        <v>794.8572577953855</v>
+        <v>794.857257795385</v>
       </c>
       <c r="D6" t="n">
-        <v>645.9228481341343</v>
+        <v>645.9228481341336</v>
       </c>
       <c r="E6" t="n">
-        <v>486.6853931286787</v>
+        <v>486.685393128678</v>
       </c>
       <c r="F6" t="n">
-        <v>340.1508351555636</v>
+        <v>340.150835155563</v>
       </c>
       <c r="G6" t="n">
         <v>202.6426624794727</v>
       </c>
       <c r="H6" t="n">
-        <v>101.0817783621773</v>
+        <v>101.0817783621772</v>
       </c>
       <c r="I6" t="n">
-        <v>52.87786860159241</v>
+        <v>52.8778686015924</v>
       </c>
       <c r="J6" t="n">
-        <v>52.87786860159241</v>
+        <v>52.8778686015924</v>
       </c>
       <c r="K6" t="n">
-        <v>180.4495909947078</v>
+        <v>109.9175602331218</v>
       </c>
       <c r="L6" t="n">
-        <v>670.6009785340301</v>
+        <v>600.0689477724449</v>
       </c>
       <c r="M6" t="n">
-        <v>1294.563750485348</v>
+        <v>1224.031719723764</v>
       </c>
       <c r="N6" t="n">
-        <v>1476.199023138383</v>
+        <v>1878.39534366847</v>
       </c>
       <c r="O6" t="n">
-        <v>2010.063713170336</v>
+        <v>2412.260033700424</v>
       </c>
       <c r="P6" t="n">
-        <v>2421.534125586047</v>
+        <v>2629.510640444536</v>
       </c>
       <c r="Q6" t="n">
         <v>2643.89343007962</v>
@@ -4680,7 +4680,7 @@
         <v>2042.526888027011</v>
       </c>
       <c r="V6" t="n">
-        <v>1807.374779795269</v>
+        <v>1807.374779795268</v>
       </c>
       <c r="W6" t="n">
         <v>1553.137423067067</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>104.6463739438915</v>
+        <v>52.8778686015924</v>
       </c>
       <c r="C7" t="n">
-        <v>104.6463739438915</v>
+        <v>52.8778686015924</v>
       </c>
       <c r="D7" t="n">
-        <v>104.6463739438915</v>
+        <v>52.8778686015924</v>
       </c>
       <c r="E7" t="n">
-        <v>104.6463739438915</v>
+        <v>52.8778686015924</v>
       </c>
       <c r="F7" t="n">
-        <v>104.6463739438915</v>
+        <v>52.8778686015924</v>
       </c>
       <c r="G7" t="n">
-        <v>104.6463739438915</v>
+        <v>52.8778686015924</v>
       </c>
       <c r="H7" t="n">
-        <v>52.87786860159241</v>
+        <v>52.8778686015924</v>
       </c>
       <c r="I7" t="n">
-        <v>52.87786860159241</v>
+        <v>52.8778686015924</v>
       </c>
       <c r="J7" t="n">
-        <v>52.87786860159241</v>
+        <v>52.8778686015924</v>
       </c>
       <c r="K7" t="n">
-        <v>147.5511451470668</v>
+        <v>147.5511451470671</v>
       </c>
       <c r="L7" t="n">
-        <v>324.2267788599419</v>
+        <v>324.2267788599426</v>
       </c>
       <c r="M7" t="n">
-        <v>520.895585952929</v>
+        <v>520.8955859529301</v>
       </c>
       <c r="N7" t="n">
-        <v>718.3226648114958</v>
+        <v>718.3226648114972</v>
       </c>
       <c r="O7" t="n">
-        <v>884.6622311215731</v>
+        <v>884.6622311215749</v>
       </c>
       <c r="P7" t="n">
-        <v>1003.473783919015</v>
+        <v>1003.473783919017</v>
       </c>
       <c r="Q7" t="n">
-        <v>1002.273784441733</v>
+        <v>1002.273784441736</v>
       </c>
       <c r="R7" t="n">
-        <v>869.2786712763461</v>
+        <v>1002.273784441736</v>
       </c>
       <c r="S7" t="n">
-        <v>869.2786712763461</v>
+        <v>793.857887044901</v>
       </c>
       <c r="T7" t="n">
-        <v>869.2786712763461</v>
+        <v>793.857887044901</v>
       </c>
       <c r="U7" t="n">
-        <v>580.1234412933085</v>
+        <v>793.857887044901</v>
       </c>
       <c r="V7" t="n">
-        <v>325.4389530874216</v>
+        <v>570.2845895365704</v>
       </c>
       <c r="W7" t="n">
-        <v>325.4389530874216</v>
+        <v>280.8674194996098</v>
       </c>
       <c r="X7" t="n">
-        <v>325.4389530874216</v>
+        <v>52.8778686015924</v>
       </c>
       <c r="Y7" t="n">
-        <v>104.6463739438915</v>
+        <v>52.8778686015924</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1379.876333192944</v>
+        <v>1318.867640982152</v>
       </c>
       <c r="C8" t="n">
-        <v>1010.913816252533</v>
+        <v>1318.867640982152</v>
       </c>
       <c r="D8" t="n">
-        <v>795.134266341859</v>
+        <v>1318.867640982152</v>
       </c>
       <c r="E8" t="n">
-        <v>795.134266341859</v>
+        <v>1318.867640982152</v>
       </c>
       <c r="F8" t="n">
-        <v>788.1887655926555</v>
+        <v>907.8817361925446</v>
       </c>
       <c r="G8" t="n">
-        <v>371.1009838290829</v>
+        <v>490.7939544289721</v>
       </c>
       <c r="H8" t="n">
-        <v>52.87786860159241</v>
+        <v>172.5708392014816</v>
       </c>
       <c r="I8" t="n">
-        <v>52.87786860159241</v>
+        <v>52.8778686015924</v>
       </c>
       <c r="J8" t="n">
-        <v>74.11211859497571</v>
+        <v>74.1121185949757</v>
       </c>
       <c r="K8" t="n">
         <v>156.6752731695681</v>
       </c>
       <c r="L8" t="n">
-        <v>691.9883009982631</v>
+        <v>709.4885314157673</v>
       </c>
       <c r="M8" t="n">
-        <v>1323.706111981575</v>
+        <v>1323.706111981574</v>
       </c>
       <c r="N8" t="n">
         <v>1951.013780041421</v>
       </c>
       <c r="O8" t="n">
-        <v>2498.174984808499</v>
+        <v>2498.174984808498</v>
       </c>
       <c r="P8" t="n">
         <v>2608.909310058025</v>
@@ -4832,22 +4832,22 @@
         <v>2487.678392576448</v>
       </c>
       <c r="T8" t="n">
-        <v>2487.678392576448</v>
+        <v>2272.878530844159</v>
       </c>
       <c r="U8" t="n">
-        <v>2487.678392576448</v>
+        <v>2019.18682758931</v>
       </c>
       <c r="V8" t="n">
-        <v>2156.615505232878</v>
+        <v>1688.12394024574</v>
       </c>
       <c r="W8" t="n">
-        <v>2156.615505232878</v>
+        <v>1335.355284975625</v>
       </c>
       <c r="X8" t="n">
-        <v>2156.615505232878</v>
+        <v>1318.867640982152</v>
       </c>
       <c r="Y8" t="n">
-        <v>1766.476173257066</v>
+        <v>1318.867640982152</v>
       </c>
     </row>
     <row r="9">
@@ -4875,28 +4875,28 @@
         <v>199.6987034664713</v>
       </c>
       <c r="H9" t="n">
-        <v>98.78272561127592</v>
+        <v>98.78272561127591</v>
       </c>
       <c r="I9" t="n">
-        <v>52.87786860159241</v>
+        <v>52.8778686015924</v>
       </c>
       <c r="J9" t="n">
-        <v>171.5371204584881</v>
+        <v>52.8778686015924</v>
       </c>
       <c r="K9" t="n">
-        <v>239.1449401218451</v>
+        <v>382.3062729074023</v>
       </c>
       <c r="L9" t="n">
-        <v>743.5064799879636</v>
+        <v>886.6678127735208</v>
       </c>
       <c r="M9" t="n">
-        <v>1384.051829455068</v>
+        <v>1066.165149128126</v>
       </c>
       <c r="N9" t="n">
-        <v>1746.383833702133</v>
+        <v>1431.105692748595</v>
       </c>
       <c r="O9" t="n">
-        <v>2295.819842454855</v>
+        <v>1980.541701501318</v>
       </c>
       <c r="P9" t="n">
         <v>2404.509469982154</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>505.1622446965562</v>
+        <v>59.92876177654225</v>
       </c>
       <c r="C10" t="n">
-        <v>505.1622446965562</v>
+        <v>59.92876177654225</v>
       </c>
       <c r="D10" t="n">
-        <v>355.0456052842204</v>
+        <v>59.92876177654225</v>
       </c>
       <c r="E10" t="n">
-        <v>207.1325117018273</v>
+        <v>59.92876177654225</v>
       </c>
       <c r="F10" t="n">
-        <v>207.1325117018273</v>
+        <v>59.92876177654225</v>
       </c>
       <c r="G10" t="n">
-        <v>207.1325117018273</v>
+        <v>59.92876177654225</v>
       </c>
       <c r="H10" t="n">
-        <v>52.87786860159241</v>
+        <v>59.92876177654225</v>
       </c>
       <c r="I10" t="n">
-        <v>52.87786860159241</v>
+        <v>59.92876177654225</v>
       </c>
       <c r="J10" t="n">
-        <v>52.87786860159241</v>
+        <v>52.8778686015924</v>
       </c>
       <c r="K10" t="n">
         <v>153.9257981972022</v>
@@ -4987,25 +4987,25 @@
         <v>1052.812550060937</v>
       </c>
       <c r="S10" t="n">
-        <v>941.4951977326828</v>
+        <v>1052.812550060937</v>
       </c>
       <c r="T10" t="n">
-        <v>941.4951977326828</v>
+        <v>1052.812550060937</v>
       </c>
       <c r="U10" t="n">
-        <v>941.4951977326828</v>
+        <v>1052.812550060937</v>
       </c>
       <c r="V10" t="n">
-        <v>686.8107095267959</v>
+        <v>798.1280618550503</v>
       </c>
       <c r="W10" t="n">
-        <v>686.8107095267959</v>
+        <v>508.7108918180897</v>
       </c>
       <c r="X10" t="n">
-        <v>686.8107095267959</v>
+        <v>280.7213409200724</v>
       </c>
       <c r="Y10" t="n">
-        <v>686.8107095267959</v>
+        <v>59.92876177654225</v>
       </c>
     </row>
     <row r="11">
@@ -5039,10 +5039,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5057,7 +5057,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5075,7 +5075,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5115,22 +5115,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
         <v>1859.536823237711</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>680.448174698413</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1682.382642959248</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1392.965472922288</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1164.975922024269</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>944.1833428807391</v>
       </c>
     </row>
     <row r="14">
@@ -5267,10 +5267,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5282,13 +5282,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5352,22 +5352,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400671</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121602</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121602</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121602</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121602</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5437,49 +5437,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038301</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797701</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832659</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487563</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510504</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854702</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648815</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611854</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713837</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703069</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="17">
@@ -5495,46 +5495,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400676</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121607</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121607</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121607</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121607</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270406</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487564</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510505</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854702</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648815</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611855</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138374</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703073</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5747,31 +5747,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5783,13 +5783,13 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591808</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1901.695539989114</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1647.011051783227</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5990,25 +5990,25 @@
         <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2272.857469997002</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>2272.857469997002</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1983.7822433412</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V25" t="n">
-        <v>1729.097755135313</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="26">
@@ -6218,16 +6218,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6245,31 +6245,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>721.7774158311364</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>552.8412329032295</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6427,7 +6427,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>903.4258806613761</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,25 +6458,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6695,25 +6695,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6935,49 +6935,49 @@
         <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,10 +7008,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7090,16 +7090,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7166,43 +7166,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7363,10 +7363,10 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7391,10 +7391,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7594,7 +7594,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7725,19 +7725,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345479</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547835</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>123.6920851048391</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>195.5118070949269</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>12.47889388945647</v>
+        <v>12.47889388945615</v>
       </c>
       <c r="K3" t="n">
-        <v>71.24447551675408</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,13 +8067,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>125.2420071441074</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8216,13 +8216,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>123.6920851048391</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
@@ -8231,7 +8231,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>249.0602060264987</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>12.47889388945647</v>
+        <v>12.47889388945615</v>
       </c>
       <c r="K6" t="n">
-        <v>71.24447551675408</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,16 +8304,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>477.5033851431015</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>122.2811467494333</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8456,10 +8456,10 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>399.9842141287291</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>431.8365330711106</v>
       </c>
       <c r="N8" t="n">
         <v>437.3469244119842</v>
@@ -8529,25 +8529,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>165.328548075151</v>
+        <v>167.9634363311155</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -22547,10 +22547,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.04045807104878</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>27.95109242516054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>123.2593613022698</v>
+        <v>123.2593613022696</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,13 +22592,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>7.761206811565245</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>157.4683767541293</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>213.1927212976437</v>
       </c>
       <c r="U2" t="n">
         <v>251.1646705523096</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>333.2930008863997</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22765,7 +22765,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>21.71286806522683</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>164.9286282187579</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986309</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>246.1944645373247</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194626</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194579</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>37.12601365260461</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,13 +24181,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>144.8013425629417</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>102.889702261794</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>75.03697526434014</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>205.8445769401545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24850,7 +24850,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -26314,7 +26314,7 @@
         <v>207271.1201254693</v>
       </c>
       <c r="C2" t="n">
-        <v>246312.5309592849</v>
+        <v>246312.5309592851</v>
       </c>
       <c r="D2" t="n">
         <v>246312.5309592851</v>
@@ -26323,16 +26323,16 @@
         <v>242143.9799070018</v>
       </c>
       <c r="F2" t="n">
-        <v>242143.9799070017</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="G2" t="n">
-        <v>242143.9799070017</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="H2" t="n">
-        <v>242143.9799070017</v>
+        <v>242143.9799070019</v>
       </c>
       <c r="I2" t="n">
-        <v>242143.9799070019</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="J2" t="n">
         <v>242143.9799070018</v>
@@ -26341,16 +26341,16 @@
         <v>242143.9799070018</v>
       </c>
       <c r="L2" t="n">
-        <v>242143.9799070017</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="M2" t="n">
-        <v>246312.5309592848</v>
+        <v>246312.5309592847</v>
       </c>
       <c r="N2" t="n">
-        <v>246312.5309592848</v>
+        <v>246312.5309592849</v>
       </c>
       <c r="O2" t="n">
-        <v>246312.5309592852</v>
+        <v>246312.530959285</v>
       </c>
       <c r="P2" t="n">
         <v>246312.530959285</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>763772.8926282771</v>
+        <v>763772.8926282786</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>26321.10377278264</v>
+        <v>26321.10377278127</v>
       </c>
       <c r="E3" t="n">
-        <v>775027.933563738</v>
+        <v>775027.9335637379</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172939.7131549378</v>
+        <v>172939.713154938</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>146954.1096338261</v>
+        <v>146954.1096338263</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.831690603168681e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>114637.020601164</v>
+        <v>114637.0206011637</v>
       </c>
       <c r="C4" t="n">
-        <v>188915.526893407</v>
+        <v>188915.5268934067</v>
       </c>
       <c r="D4" t="n">
         <v>183723.0177420302</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531694993</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531694995</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531694984</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531694991</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695106</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695059</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695075</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="M4" t="n">
-        <v>14278.33979478851</v>
+        <v>14278.33979478849</v>
       </c>
       <c r="N4" t="n">
-        <v>14278.33979478851</v>
+        <v>14278.33979478848</v>
       </c>
       <c r="O4" t="n">
         <v>14278.33979478853</v>
       </c>
       <c r="P4" t="n">
-        <v>14278.33979478853</v>
+        <v>14278.33979478852</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86082.55599262906</v>
+        <v>86082.5559926291</v>
       </c>
       <c r="C5" t="n">
-        <v>86082.55599262906</v>
+        <v>86082.5559926291</v>
       </c>
       <c r="D5" t="n">
-        <v>86752.55912458005</v>
+        <v>86752.55912458003</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-757221.3490966007</v>
+        <v>-757546.6941868839</v>
       </c>
       <c r="C6" t="n">
-        <v>-28685.55192675118</v>
+        <v>-28685.55192675073</v>
       </c>
       <c r="D6" t="n">
-        <v>-50484.14968010776</v>
+        <v>-50484.14968010641</v>
       </c>
       <c r="E6" t="n">
-        <v>-640293.9640123382</v>
+        <v>-640328.7019377738</v>
       </c>
       <c r="F6" t="n">
-        <v>134733.9695513998</v>
+        <v>134699.2316259639</v>
       </c>
       <c r="G6" t="n">
-        <v>134733.9695513995</v>
+        <v>134699.2316259639</v>
       </c>
       <c r="H6" t="n">
-        <v>134733.9695513996</v>
+        <v>134699.231625964</v>
       </c>
       <c r="I6" t="n">
-        <v>134733.9695513998</v>
+        <v>134699.2316259639</v>
       </c>
       <c r="J6" t="n">
-        <v>-38205.74360353818</v>
+        <v>-38240.48152897409</v>
       </c>
       <c r="K6" t="n">
-        <v>134733.9695513996</v>
+        <v>134699.2316259639</v>
       </c>
       <c r="L6" t="n">
-        <v>134733.9695513995</v>
+        <v>134699.2316259639</v>
       </c>
       <c r="M6" t="n">
-        <v>-18084.03432324517</v>
+        <v>-18084.03432324549</v>
       </c>
       <c r="N6" t="n">
-        <v>128870.0753105809</v>
+        <v>128870.075310581</v>
       </c>
       <c r="O6" t="n">
         <v>128870.0753105812</v>
       </c>
       <c r="P6" t="n">
-        <v>128870.075310581</v>
+        <v>128870.0753105811</v>
       </c>
     </row>
   </sheetData>
@@ -26722,10 +26722,10 @@
         <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>562.7420117164608</v>
+        <v>562.7420117164623</v>
       </c>
       <c r="C3" t="n">
-        <v>562.7420117164608</v>
+        <v>562.7420117164623</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>660.9733575199051</v>
+        <v>660.973357519905</v>
       </c>
       <c r="C4" t="n">
-        <v>660.9733575199051</v>
+        <v>660.973357519905</v>
       </c>
       <c r="D4" t="n">
-        <v>660.9733575199051</v>
+        <v>660.973357519905</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26820,10 +26820,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-3.604497107147145e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.039613253960852e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26957,46 +26957,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>562.7420117164608</v>
+        <v>562.7420117164623</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>30.73408862160431</v>
+        <v>30.73408862160272</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2.273736754432321e-13</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>-2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-2.273736754432321e-13</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>660.9733575199051</v>
+        <v>660.973357519905</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>660.9733575199049</v>
+        <v>660.973357519905</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>511.7349305797431</v>
+        <v>511.7349305797435</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>660.9733575199051</v>
+        <v>660.973357519905</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>49.17775115701164</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>157.4683767541292</v>
       </c>
       <c r="T2" t="n">
-        <v>213.1927212976437</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.976198681593</v>
@@ -27555,7 +27555,7 @@
         <v>153.204849762215</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>124.9332523902409</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.187999482508815</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>131.6651620337332</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>206.3317384228664</v>
+        <v>75.0035640976609</v>
       </c>
       <c r="T4" t="n">
-        <v>223.6097083544006</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>234.3785891556933</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>191.3930065478881</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>316.3062327590186</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>123.2593613022696</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>251.1646705523096</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>67.75238460881582</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27789,13 +27789,13 @@
         <v>166.976198681593</v>
       </c>
       <c r="H7" t="n">
-        <v>101.9540294733389</v>
+        <v>153.204849762215</v>
       </c>
       <c r="I7" t="n">
-        <v>124.933252390241</v>
+        <v>124.9332523902409</v>
       </c>
       <c r="J7" t="n">
-        <v>21.61418626226434</v>
+        <v>21.61418626226414</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>131.6651620337331</v>
       </c>
       <c r="S7" t="n">
-        <v>206.3317384228664</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>223.6097083544006</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2636776832073</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>30.80007879058073</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>141.0612872091161</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>353.4083331249305</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,13 +28026,13 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>10.71545763856864</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>95.16170309514679</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28248,7 +28248,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.002457034799392e-12</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -28311,7 +28311,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -28509,7 +28509,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>-4.210052621147866e-12</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28770,7 +28770,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>-1.002457034799392e-12</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>-6.536993168992922e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.262279444086273</v>
+        <v>2.262279444086279</v>
       </c>
       <c r="H2" t="n">
-        <v>23.16856935674855</v>
+        <v>23.16856935674861</v>
       </c>
       <c r="I2" t="n">
-        <v>87.21652826813612</v>
+        <v>87.21652826813636</v>
       </c>
       <c r="J2" t="n">
-        <v>192.0081399675175</v>
+        <v>192.008139967518</v>
       </c>
       <c r="K2" t="n">
-        <v>287.7704288356894</v>
+        <v>287.7704288356903</v>
       </c>
       <c r="L2" t="n">
-        <v>357.0046633726448</v>
+        <v>357.0046633726458</v>
       </c>
       <c r="M2" t="n">
-        <v>397.236475436414</v>
+        <v>397.2364754364152</v>
       </c>
       <c r="N2" t="n">
-        <v>403.6641769069242</v>
+        <v>403.6641769069253</v>
       </c>
       <c r="O2" t="n">
-        <v>381.1686356847913</v>
+        <v>381.1686356847923</v>
       </c>
       <c r="P2" t="n">
-        <v>325.3186119089114</v>
+        <v>325.3186119089123</v>
       </c>
       <c r="Q2" t="n">
-        <v>244.3007293175716</v>
+        <v>244.3007293175723</v>
       </c>
       <c r="R2" t="n">
-        <v>142.1079111295844</v>
+        <v>142.1079111295849</v>
       </c>
       <c r="S2" t="n">
-        <v>51.55169283211599</v>
+        <v>51.55169283211614</v>
       </c>
       <c r="T2" t="n">
-        <v>9.903128266487665</v>
+        <v>9.903128266487691</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1809823555269018</v>
+        <v>0.1809823555269023</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.210426213880689</v>
+        <v>1.210426213880693</v>
       </c>
       <c r="H3" t="n">
-        <v>11.69016896037403</v>
+        <v>11.69016896037406</v>
       </c>
       <c r="I3" t="n">
-        <v>41.67476218843601</v>
+        <v>41.67476218843613</v>
       </c>
       <c r="J3" t="n">
-        <v>114.3587327772102</v>
+        <v>114.3587327772105</v>
       </c>
       <c r="K3" t="n">
-        <v>195.4572891072164</v>
+        <v>195.457289107217</v>
       </c>
       <c r="L3" t="n">
-        <v>262.8164461322962</v>
+        <v>262.8164461322969</v>
       </c>
       <c r="M3" t="n">
-        <v>306.6943963854711</v>
+        <v>306.6943963854719</v>
       </c>
       <c r="N3" t="n">
-        <v>314.811684460136</v>
+        <v>314.8116844601368</v>
       </c>
       <c r="O3" t="n">
-        <v>287.9911878262533</v>
+        <v>287.9911878262541</v>
       </c>
       <c r="P3" t="n">
-        <v>231.1383179821818</v>
+        <v>231.1383179821825</v>
       </c>
       <c r="Q3" t="n">
-        <v>154.5098444244894</v>
+        <v>154.5098444244898</v>
       </c>
       <c r="R3" t="n">
-        <v>75.15260299866247</v>
+        <v>75.15260299866269</v>
       </c>
       <c r="S3" t="n">
-        <v>22.48313603414349</v>
+        <v>22.48313603414355</v>
       </c>
       <c r="T3" t="n">
-        <v>4.878867063843654</v>
+        <v>4.878867063843667</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07963330354478222</v>
+        <v>0.07963330354478244</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.014780676865749</v>
+        <v>1.014780676865752</v>
       </c>
       <c r="H4" t="n">
-        <v>9.022322745224573</v>
+        <v>9.022322745224599</v>
       </c>
       <c r="I4" t="n">
-        <v>30.51722253701725</v>
+        <v>30.51722253701734</v>
       </c>
       <c r="J4" t="n">
-        <v>71.74499385440843</v>
+        <v>71.74499385440863</v>
       </c>
       <c r="K4" t="n">
-        <v>117.8990640940388</v>
+        <v>117.8990640940391</v>
       </c>
       <c r="L4" t="n">
-        <v>150.8702108132951</v>
+        <v>150.8702108132955</v>
       </c>
       <c r="M4" t="n">
-        <v>159.0714837381464</v>
+        <v>159.0714837381468</v>
       </c>
       <c r="N4" t="n">
-        <v>155.2891193971015</v>
+        <v>155.2891193971019</v>
       </c>
       <c r="O4" t="n">
-        <v>143.4346360355333</v>
+        <v>143.4346360355337</v>
       </c>
       <c r="P4" t="n">
-        <v>122.733110227472</v>
+        <v>122.7331102274723</v>
       </c>
       <c r="Q4" t="n">
-        <v>84.97404376918557</v>
+        <v>84.97404376918581</v>
       </c>
       <c r="R4" t="n">
-        <v>45.6282293434363</v>
+        <v>45.62822934343642</v>
       </c>
       <c r="S4" t="n">
-        <v>17.68485961410581</v>
+        <v>17.68485961410586</v>
       </c>
       <c r="T4" t="n">
-        <v>4.335881073880926</v>
+        <v>4.335881073880937</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05535167328358636</v>
+        <v>0.05535167328358652</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.262279444086273</v>
+        <v>2.262279444086279</v>
       </c>
       <c r="H5" t="n">
-        <v>23.16856935674855</v>
+        <v>23.16856935674861</v>
       </c>
       <c r="I5" t="n">
-        <v>87.21652826813612</v>
+        <v>87.21652826813636</v>
       </c>
       <c r="J5" t="n">
-        <v>192.0081399675175</v>
+        <v>192.008139967518</v>
       </c>
       <c r="K5" t="n">
-        <v>287.7704288356894</v>
+        <v>287.7704288356903</v>
       </c>
       <c r="L5" t="n">
-        <v>357.0046633726448</v>
+        <v>357.0046633726458</v>
       </c>
       <c r="M5" t="n">
-        <v>397.236475436414</v>
+        <v>397.2364754364152</v>
       </c>
       <c r="N5" t="n">
-        <v>403.6641769069242</v>
+        <v>403.6641769069253</v>
       </c>
       <c r="O5" t="n">
-        <v>381.1686356847913</v>
+        <v>381.1686356847923</v>
       </c>
       <c r="P5" t="n">
-        <v>325.3186119089114</v>
+        <v>325.3186119089123</v>
       </c>
       <c r="Q5" t="n">
-        <v>244.3007293175716</v>
+        <v>244.3007293175723</v>
       </c>
       <c r="R5" t="n">
-        <v>142.1079111295844</v>
+        <v>142.1079111295849</v>
       </c>
       <c r="S5" t="n">
-        <v>51.55169283211599</v>
+        <v>51.55169283211614</v>
       </c>
       <c r="T5" t="n">
-        <v>9.903128266487665</v>
+        <v>9.903128266487691</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1809823555269018</v>
+        <v>0.1809823555269023</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.210426213880689</v>
+        <v>1.210426213880693</v>
       </c>
       <c r="H6" t="n">
-        <v>11.69016896037403</v>
+        <v>11.69016896037406</v>
       </c>
       <c r="I6" t="n">
-        <v>41.67476218843601</v>
+        <v>41.67476218843613</v>
       </c>
       <c r="J6" t="n">
-        <v>114.3587327772102</v>
+        <v>114.3587327772105</v>
       </c>
       <c r="K6" t="n">
-        <v>195.4572891072164</v>
+        <v>195.457289107217</v>
       </c>
       <c r="L6" t="n">
-        <v>262.8164461322962</v>
+        <v>262.8164461322969</v>
       </c>
       <c r="M6" t="n">
-        <v>306.6943963854711</v>
+        <v>306.6943963854719</v>
       </c>
       <c r="N6" t="n">
-        <v>314.811684460136</v>
+        <v>314.8116844601368</v>
       </c>
       <c r="O6" t="n">
-        <v>287.9911878262533</v>
+        <v>287.9911878262541</v>
       </c>
       <c r="P6" t="n">
-        <v>231.1383179821818</v>
+        <v>231.1383179821825</v>
       </c>
       <c r="Q6" t="n">
-        <v>154.5098444244894</v>
+        <v>154.5098444244898</v>
       </c>
       <c r="R6" t="n">
-        <v>75.15260299866247</v>
+        <v>75.15260299866269</v>
       </c>
       <c r="S6" t="n">
-        <v>22.48313603414349</v>
+        <v>22.48313603414355</v>
       </c>
       <c r="T6" t="n">
-        <v>4.878867063843654</v>
+        <v>4.878867063843667</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07963330354478222</v>
+        <v>0.07963330354478244</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.014780676865749</v>
+        <v>1.014780676865752</v>
       </c>
       <c r="H7" t="n">
-        <v>9.022322745224573</v>
+        <v>9.022322745224599</v>
       </c>
       <c r="I7" t="n">
-        <v>30.51722253701725</v>
+        <v>30.51722253701734</v>
       </c>
       <c r="J7" t="n">
-        <v>71.74499385440843</v>
+        <v>71.74499385440863</v>
       </c>
       <c r="K7" t="n">
-        <v>117.8990640940388</v>
+        <v>117.8990640940391</v>
       </c>
       <c r="L7" t="n">
-        <v>150.8702108132951</v>
+        <v>150.8702108132955</v>
       </c>
       <c r="M7" t="n">
-        <v>159.0714837381464</v>
+        <v>159.0714837381468</v>
       </c>
       <c r="N7" t="n">
-        <v>155.2891193971015</v>
+        <v>155.2891193971019</v>
       </c>
       <c r="O7" t="n">
-        <v>143.4346360355333</v>
+        <v>143.4346360355337</v>
       </c>
       <c r="P7" t="n">
-        <v>122.733110227472</v>
+        <v>122.7331102274723</v>
       </c>
       <c r="Q7" t="n">
-        <v>84.97404376918557</v>
+        <v>84.97404376918581</v>
       </c>
       <c r="R7" t="n">
-        <v>45.6282293434363</v>
+        <v>45.62822934343642</v>
       </c>
       <c r="S7" t="n">
-        <v>17.68485961410581</v>
+        <v>17.68485961410586</v>
       </c>
       <c r="T7" t="n">
-        <v>4.335881073880926</v>
+        <v>4.335881073880937</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05535167328358636</v>
+        <v>0.05535167328358652</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>232.1537035940586</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>333.9544784328822</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32084,13 +32084,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>467.1465236515248</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>748.8168776781358</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N21" t="n">
-        <v>253.6713445157994</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,31 +33260,31 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,16 +33737,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>400.5469039565762</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34150,7 +34150,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34205,10 +34205,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34445,7 +34445,7 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34457,10 +34457,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>10.96223544083117</v>
+        <v>180.0588506129055</v>
       </c>
       <c r="K2" t="n">
-        <v>191.372662895548</v>
+        <v>391.8259903618745</v>
       </c>
       <c r="L2" t="n">
-        <v>538.899462953108</v>
+        <v>538.8994629531089</v>
       </c>
       <c r="M2" t="n">
-        <v>616.4037757019738</v>
+        <v>166.8902422091424</v>
       </c>
       <c r="N2" t="n">
-        <v>611.5980377223175</v>
+        <v>174.2511133103344</v>
       </c>
       <c r="O2" t="n">
-        <v>531.8706055258499</v>
+        <v>531.8706055258509</v>
       </c>
       <c r="P2" t="n">
-        <v>94.08561615364181</v>
+        <v>415.8843243251254</v>
       </c>
       <c r="Q2" t="n">
-        <v>21.99503944312215</v>
+        <v>217.5068465380498</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>128.8603256496115</v>
+        <v>322.0810871454365</v>
       </c>
       <c r="L3" t="n">
-        <v>495.1024116558812</v>
+        <v>495.1024116558819</v>
       </c>
       <c r="M3" t="n">
-        <v>630.2654262134527</v>
+        <v>630.2654262134536</v>
       </c>
       <c r="N3" t="n">
-        <v>183.4699723768026</v>
+        <v>308.7119795209109</v>
       </c>
       <c r="O3" t="n">
-        <v>539.2572626585384</v>
+        <v>539.2572626585392</v>
       </c>
       <c r="P3" t="n">
-        <v>415.6266792077887</v>
+        <v>97.16391056785221</v>
       </c>
       <c r="Q3" t="n">
-        <v>224.605358074317</v>
+        <v>224.6053580743174</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>95.62957226815594</v>
+        <v>95.62957226815627</v>
       </c>
       <c r="L4" t="n">
-        <v>178.4602360736112</v>
+        <v>178.4602360736116</v>
       </c>
       <c r="M4" t="n">
-        <v>198.655360699987</v>
+        <v>198.6553606999874</v>
       </c>
       <c r="N4" t="n">
-        <v>199.4212917763301</v>
+        <v>199.4212917763305</v>
       </c>
       <c r="O4" t="n">
-        <v>168.019763949573</v>
+        <v>168.0197639495734</v>
       </c>
       <c r="P4" t="n">
-        <v>120.0116694923655</v>
+        <v>120.0116694923658</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>10.96223544083117</v>
+        <v>10.96223544083171</v>
       </c>
       <c r="K5" t="n">
-        <v>191.372662895548</v>
+        <v>391.8259903618745</v>
       </c>
       <c r="L5" t="n">
-        <v>538.899462953108</v>
+        <v>538.8994629531089</v>
       </c>
       <c r="M5" t="n">
-        <v>616.4037757019738</v>
+        <v>166.8902422091424</v>
       </c>
       <c r="N5" t="n">
-        <v>611.5980377223175</v>
+        <v>611.5980377223186</v>
       </c>
       <c r="O5" t="n">
-        <v>531.8706055258499</v>
+        <v>531.8706055258509</v>
       </c>
       <c r="P5" t="n">
-        <v>94.08561615364181</v>
+        <v>343.1458221801415</v>
       </c>
       <c r="Q5" t="n">
-        <v>21.99503944312215</v>
+        <v>21.99503944312286</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>128.8603256496115</v>
+        <v>57.61585013285796</v>
       </c>
       <c r="L6" t="n">
-        <v>495.1024116558812</v>
+        <v>495.1024116558819</v>
       </c>
       <c r="M6" t="n">
-        <v>630.2654262134527</v>
+        <v>630.2654262134536</v>
       </c>
       <c r="N6" t="n">
-        <v>183.4699723768026</v>
+        <v>660.973357519905</v>
       </c>
       <c r="O6" t="n">
-        <v>539.2572626585384</v>
+        <v>539.2572626585392</v>
       </c>
       <c r="P6" t="n">
-        <v>415.6266792077887</v>
+        <v>219.4450573172855</v>
       </c>
       <c r="Q6" t="n">
-        <v>224.605358074317</v>
+        <v>14.52807033846832</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>95.62957226815594</v>
+        <v>95.62957226815627</v>
       </c>
       <c r="L7" t="n">
-        <v>178.4602360736112</v>
+        <v>178.4602360736116</v>
       </c>
       <c r="M7" t="n">
-        <v>198.655360699987</v>
+        <v>198.6553606999874</v>
       </c>
       <c r="N7" t="n">
-        <v>199.4212917763301</v>
+        <v>199.4212917763305</v>
       </c>
       <c r="O7" t="n">
-        <v>168.019763949573</v>
+        <v>168.0197639495734</v>
       </c>
       <c r="P7" t="n">
-        <v>120.0116694923655</v>
+        <v>120.0116694923658</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35176,10 +35176,10 @@
         <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
-        <v>540.720230129995</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>620.4217985513203</v>
       </c>
       <c r="N8" t="n">
         <v>633.6441091513602</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>365.991923481883</v>
+        <v>368.6268117378475</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
         <v>233.0438950105733</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>90.01966967204032</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>191.3582339884378</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35732,13 +35732,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35805,7 +35805,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096307</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
         <v>394.3420143191314</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>328.5921438716506</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>617.4751655948025</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N21" t="n">
-        <v>122.3296324324661</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,13 +37388,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>257.9506595121318</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,16 +37625,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -38023,7 +38023,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38105,10 +38105,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
